--- a/data.xlsx
+++ b/data.xlsx
@@ -3137,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2812,15 +2812,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2847,10 +2847,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -2817,8 +2818,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2847,8 +2848,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -3137,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4212,4 +4213,171 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>